--- a/cases/NorthSea_v3/Networks/ImportLimits.xlsx
+++ b/cases/NorthSea_v3/Networks/ImportLimits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea_v2\Networks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9D5CE5-73B2-434B-8D14-037B3286EC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C858FBAC-6369-48AE-B00B-95E75FFE29FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ToPython" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$2:$I$62</definedName>
-    <definedName name="Factor">Data!$B$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Node</t>
   </si>
@@ -417,12 +416,6 @@
   </si>
   <si>
     <t>with connection to North Norway, from ERAA data</t>
-  </si>
-  <si>
-    <t>onNL_C</t>
-  </si>
-  <si>
-    <t>Factor</t>
   </si>
 </sst>
 </file>
@@ -576,7 +569,7 @@
       <sheetName val="Nodes_used"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="A2" t="str">
@@ -1001,18 +994,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1019,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:A29">[1]Nodes!$A$2:$A$29</f>
         <v>onNL_NE</v>
@@ -1035,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <v>onNL_SE</v>
       </c>
@@ -1043,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <v>onNL_NW</v>
       </c>
@@ -1051,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <v>onNL_W</v>
       </c>
@@ -1059,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <v>onNL_CE</v>
       </c>
@@ -1067,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <v>onNL_SW</v>
       </c>
@@ -1075,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <v>onNL_CW</v>
       </c>
@@ -1083,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <v>onNL_E</v>
       </c>
@@ -1091,55 +1084,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <v>onBE</v>
       </c>
       <c r="B10">
-        <f>Data!B13*Factor</f>
+        <f>Data!B13</f>
         <v>1850</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <v>onDE</v>
       </c>
       <c r="B11">
-        <f>(Data!B5+Data!B7+Data!B8+Data!B15+Data!B29+Data!B45+Data!B50)*Factor</f>
+        <f>Data!B5+Data!B7+Data!B8+Data!B15+Data!B29+Data!B45+Data!B50</f>
         <v>13068</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <v>onUK</v>
       </c>
       <c r="B12">
-        <f>(Data!B19+Data!B23+Data!B33)*Factor</f>
+        <f>Data!B19+Data!B23+Data!B33</f>
         <v>2750</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <v>onNOS</v>
       </c>
       <c r="B13">
-        <f>(Data!B41+Data!B54+1375)*Factor</f>
+        <f>Data!B41+Data!B54+1375</f>
         <v>4312</v>
       </c>
       <c r="D13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <v>onDKW</v>
       </c>
       <c r="B14">
-        <f>(Data!B51)*Factor</f>
+        <f>Data!B51</f>
         <v>1403</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <v>ofNL_IJ_B</v>
       </c>
@@ -1147,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <v>ofNL_IJ_A</v>
       </c>
@@ -1155,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <v>ofNL_BO_A</v>
       </c>
@@ -1163,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <v>ofNL_BO_B</v>
       </c>
@@ -1171,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <v>ofNL_EG</v>
       </c>
@@ -1179,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <v>ofNL_PA</v>
       </c>
@@ -1187,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <v>ofNL_LU</v>
       </c>
@@ -1195,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <v>ofNL_GE_B</v>
       </c>
@@ -1203,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <v>ofNL_GE_A</v>
       </c>
@@ -1211,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <v>ofNL_KZ_B</v>
       </c>
@@ -1219,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <v>ofNL_KZ_A</v>
       </c>
@@ -1227,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <v>ofNL_KN</v>
       </c>
@@ -1235,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <v>ofNL_KW_A</v>
       </c>
@@ -1243,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <v>ofNL_KW_B</v>
       </c>
@@ -1251,19 +1244,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <v>ofNL_IJ_G</v>
       </c>
       <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30">
         <v>0</v>
       </c>
     </row>
@@ -1274,18 +1259,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBDC3EC-D7FD-495E-8C06-AB8FF0FD2F6C}">
-  <dimension ref="A1:I65"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -1304,7 +1290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="9" t="s">
@@ -1324,7 +1310,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1347,7 +1333,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1370,7 +1356,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1393,7 +1379,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1416,7 +1402,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1439,7 +1425,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1462,7 +1448,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1485,7 +1471,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1508,7 +1494,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1531,7 +1517,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1554,7 +1540,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1577,7 +1563,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1600,7 +1586,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1623,7 +1609,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1646,7 +1632,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1669,7 +1655,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1692,7 +1678,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1715,7 +1701,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1738,7 +1724,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1761,7 +1747,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1784,7 +1770,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1807,7 +1793,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -1830,7 +1816,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -1853,7 +1839,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -1876,7 +1862,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -1899,7 +1885,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -1922,7 +1908,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -1945,7 +1931,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -1968,7 +1954,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -1991,7 +1977,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -2014,7 +2000,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
@@ -2037,7 +2023,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -2060,7 +2046,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
@@ -2083,7 +2069,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -2106,7 +2092,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
@@ -2129,7 +2115,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -2152,7 +2138,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -2175,7 +2161,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -2198,7 +2184,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -2221,7 +2207,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
@@ -2244,7 +2230,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -2267,7 +2253,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -2290,7 +2276,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
@@ -2313,7 +2299,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
@@ -2336,7 +2322,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -2359,7 +2345,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -2382,7 +2368,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -2405,7 +2391,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -2428,7 +2414,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
@@ -2451,7 +2437,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -2474,7 +2460,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
@@ -2497,7 +2483,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -2520,7 +2506,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
@@ -2543,7 +2529,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -2566,7 +2552,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
@@ -2589,7 +2575,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -2612,7 +2598,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,7 +2621,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -2658,7 +2644,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -2681,7 +2667,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>74</v>
       </c>
@@ -2704,16 +2690,18 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" s="8">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:I62" xr:uid="{6EBDC3EC-D7FD-495E-8C06-AB8FF0FD2F6C}"/>
+  <autoFilter ref="A2:I62" xr:uid="{6EBDC3EC-D7FD-495E-8C06-AB8FF0FD2F6C}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="DE-BE"/>
+        <filter val="FR-BE"/>
+        <filter val="GB-BE"/>
+        <filter val="LU-BE"/>
+        <filter val="NL-BE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
